--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H2">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N2">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q2">
-        <v>18.79970960470881</v>
+        <v>69.89114178061233</v>
       </c>
       <c r="R2">
-        <v>18.79970960470881</v>
+        <v>629.020276025511</v>
       </c>
       <c r="S2">
-        <v>0.001454104689051044</v>
+        <v>0.004212957083714827</v>
       </c>
       <c r="T2">
-        <v>0.001454104689051044</v>
+        <v>0.004212957083714827</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H3">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N3">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q3">
-        <v>8132.118815061588</v>
+        <v>11071.50561458251</v>
       </c>
       <c r="R3">
-        <v>8132.118815061588</v>
+        <v>99643.55053124262</v>
       </c>
       <c r="S3">
-        <v>0.6289965297091316</v>
+        <v>0.6673775362371139</v>
       </c>
       <c r="T3">
-        <v>0.6289965297091316</v>
+        <v>0.6673775362371139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H4">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I4">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J4">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N4">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q4">
-        <v>1684.887807152982</v>
+        <v>2330.702041570285</v>
       </c>
       <c r="R4">
-        <v>1684.887807152982</v>
+        <v>20976.31837413257</v>
       </c>
       <c r="S4">
-        <v>0.1303213354046928</v>
+        <v>0.1404920198168225</v>
       </c>
       <c r="T4">
-        <v>0.1303213354046928</v>
+        <v>0.1404920198168225</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H5">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N5">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O5">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P5">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q5">
-        <v>4.402370123961741</v>
+        <v>12.04644880165645</v>
       </c>
       <c r="R5">
-        <v>4.402370123961741</v>
+        <v>108.418039214908</v>
       </c>
       <c r="S5">
-        <v>0.0003405109533493853</v>
+        <v>0.0007261459824458724</v>
       </c>
       <c r="T5">
-        <v>0.0003405109533493853</v>
+        <v>0.0007261459824458724</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H6">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I6">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J6">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N6">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O6">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P6">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q6">
-        <v>1904.316485131623</v>
+        <v>1908.286545982818</v>
       </c>
       <c r="R6">
-        <v>1904.316485131623</v>
+        <v>17174.57891384536</v>
       </c>
       <c r="S6">
-        <v>0.1472935267986011</v>
+        <v>0.1150293029536135</v>
       </c>
       <c r="T6">
-        <v>0.1472935267986011</v>
+        <v>0.1150293029536135</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H7">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I7">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J7">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N7">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O7">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P7">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q7">
-        <v>394.5539532472256</v>
+        <v>401.7201908623134</v>
       </c>
       <c r="R7">
-        <v>394.5539532472256</v>
+        <v>3615.481717760821</v>
       </c>
       <c r="S7">
-        <v>0.03051763913186804</v>
+        <v>0.02421522786216854</v>
       </c>
       <c r="T7">
-        <v>0.03051763913186804</v>
+        <v>0.02421522786216854</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H8">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I8">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J8">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N8">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O8">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P8">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q8">
-        <v>1.509279720574175</v>
+        <v>4.126498534209333</v>
       </c>
       <c r="R8">
-        <v>1.509279720574175</v>
+        <v>37.138486807884</v>
       </c>
       <c r="S8">
-        <v>0.0001167385435691442</v>
+        <v>0.0002487405526326451</v>
       </c>
       <c r="T8">
-        <v>0.0001167385435691442</v>
+        <v>0.000248740552632645</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H9">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I9">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J9">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N9">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O9">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P9">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q9">
-        <v>652.8633830491689</v>
+        <v>653.6815757492534</v>
       </c>
       <c r="R9">
-        <v>652.8633830491689</v>
+        <v>5883.13418174328</v>
       </c>
       <c r="S9">
-        <v>0.05049714737953945</v>
+        <v>0.03940316833986281</v>
       </c>
       <c r="T9">
-        <v>0.05049714737953945</v>
+        <v>0.03940316833986281</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H10">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I10">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J10">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N10">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O10">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P10">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q10">
-        <v>135.2662914613183</v>
+        <v>137.60883444154</v>
       </c>
       <c r="R10">
-        <v>135.2662914613183</v>
+        <v>1238.47950997386</v>
       </c>
       <c r="S10">
-        <v>0.01046246739019747</v>
+        <v>0.008294901171625237</v>
       </c>
       <c r="T10">
-        <v>0.01046246739019747</v>
+        <v>0.008294901171625237</v>
       </c>
     </row>
   </sheetData>
